--- a/target/test-classes/testdata/OrangeHrmData.xlsx
+++ b/target/test-classes/testdata/OrangeHrmData.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{89F7F370-5B69-4C37-99C3-F03DFE104113}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="16236" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16236" windowHeight="9156"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDetails" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -92,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,27 +214,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,24 +248,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,16 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -498,7 +460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -512,7 +474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -526,7 +488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -540,7 +502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -554,7 +516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -568,7 +530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -582,7 +544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -596,7 +558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -610,7 +572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -630,24 +592,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
